--- a/results/I3_N5_M3_T30_C100_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.5931942161112</v>
+        <v>376.8020010033806</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.585999965667725</v>
+        <v>1.546999931335449</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.49319421527048</v>
+        <v>32.80200100338062</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.1000000008407</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.9304832577454</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>25.11016360191877</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.23570364914818</v>
+        <v>26.38795072015898</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.70238675931966</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>111.6949999999996</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>104.8850000000001</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>111.7350000000005</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>119.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>114.6849999999994</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.69000000000781</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.8600000000061</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.13000000000649</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.8750000000073</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.54000000000818</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>112.9200000000128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>114.9300000000277</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>123.5850000000265</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>108.7650000000085</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>115.85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000001246</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.20500000001086</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.19000000001144</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000925</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000001187</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000036</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000015</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000058</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000059</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>112.920000000058</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>114.9300000000604</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.5850000000589</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.7650000000537</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>115.85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>85.69000000004421</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.86000000004431</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.1300000000447</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>89.87500000004734</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>86.54000000004275</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>111.6950000000485</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8850000000454</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>111.7350000000476</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>119.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>114.6850000000483</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.92000000005797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.93000000006003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>23.5850000000589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.765000000053703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.69500000004851</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.88500000004538</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.73500000004756</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>14.68500000004829</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
